--- a/biology/Virologie/Ritonavir/Ritonavir.xlsx
+++ b/biology/Virologie/Ritonavir/Ritonavir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ritonavir est un médicament antirétroviral, utilisé pour le traitement de l'infection par le VIH. C'est un inhibiteur de la protéase (IP). Cette molécule est commercialisée en France sous le nom de Norvir mais aussi, en association avec le lopinavir sous le nom de Kaletra. L'association est commercialisée dans certains pays sous le nom d'Aluvia.
-Aujourd'hui le ritonavir est principalement prescrit non pas pour son action antivirale mais pour sa capacité à inhiber les enzymes qui éliminent d'autres inhibiteurs de la protéase, en qualité de booster. Cette inhibition mène à des concentrations plasmatiques plus élevées de ces dernières molécules, permettant au clinicien d'abaisser leur dose et fréquence et améliorant leur efficacité clinique[2].
-C'est un des composants principaux du Paxlovid, médicament antiviral destiné à lutter contre la COVID-19[3].
+Aujourd'hui le ritonavir est principalement prescrit non pas pour son action antivirale mais pour sa capacité à inhiber les enzymes qui éliminent d'autres inhibiteurs de la protéase, en qualité de booster. Cette inhibition mène à des concentrations plasmatiques plus élevées de ces dernières molécules, permettant au clinicien d'abaisser leur dose et fréquence et améliorant leur efficacité clinique.
+C'est un des composants principaux du Paxlovid, médicament antiviral destiné à lutter contre la COVID-19.
 </t>
         </is>
       </c>
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,9 +554,11 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des effets indésirables est rapportée dans le tableau ci-dessous[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des effets indésirables est rapportée dans le tableau ci-dessous,.
 </t>
         </is>
       </c>
@@ -571,7 +587,9 @@
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ritonavir est un inhibiteur des cytochromes P450 3A4 extrêmement puissant. Il en résulte une exposition, et donc une toxicité plus élevées des médicaments métabolisés et dégradés par le CYP 3A4 en temps normal.
 C'est cette propriété qui est utilisée dans le traitement du VIH : les autres inhibiteurs de la protéase voient leur efficacité augmentée car le CYP 3A4, censé les métaboliser, est inhibé. Bien qu'étant initialement lui-même utilisé comme un inhibiteur de protéase, le ritonavir est aujourd'hui utilisé à des doses plus faibles, uniquement pour son action sur le CYP 3A4.
@@ -606,9 +624,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ritonavir fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ritonavir fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
